--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-04T22:10:47-05:00</t>
+    <t>2025-08-05T14:07:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,7 +579,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -592,7 +592,7 @@
 profile:resource}</t>
   </si>
   <si>
-    <t>Slicing based on the type (relatively easy) and then profile of the sliced element</t>
+    <t>Slicing based on the type and then profile of the sliced element</t>
   </si>
   <si>
     <t>open</t>
@@ -1552,17 +1552,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.5859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.75" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.05078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="17.796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1571,26 +1571,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="140.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="49.5" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.2109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="35.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageBundleLocationUpdate.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
